--- a/biology/Botanique/Curcilugo_latifolia/Curcilugo_latifolia.xlsx
+++ b/biology/Botanique/Curcilugo_latifolia/Curcilugo_latifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Molineria latifolia est une espèce de plantes tropicales de la famille des Hypoxidaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Curculigo latifolia (Ridl.) Geerinck</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Feuilles sombres haute de 50 cm en rosette à partir du sol.
 Fleurs jaune vif, minuscules, à la base de la plante, isolées ou par groupe de 2 ou 3.</t>
@@ -572,7 +588,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous bois dense des forêts de basse altitude d'Asie du Sud-Est. (Thailande et Malaisie principalement)
 </t>
@@ -603,7 +621,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit contient un édulcorant, la curculine.
 </t>
